--- a/2301table/listBuilding/listBuilding.xlsx
+++ b/2301table/listBuilding/listBuilding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\Github\PNUtimetable-server\2301table\listBuilding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2FED59-4D85-47DA-B075-8912BAF2DC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C080AD71-5770-4D85-B411-48F563E4141A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{261C5436-3488-4740-8895-9D7218C89F84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{261C5436-3488-4740-8895-9D7218C89F84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>제3공학관</t>
   </si>
@@ -177,20 +177,6 @@
   </si>
   <si>
     <t>과학기술연구동</t>
-  </si>
-  <si>
-    <t>building_num</t>
-  </si>
-  <si>
-    <t>building_name</t>
-  </si>
-  <si>
-    <t>building_lat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_lng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -558,7 +544,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,17 +554,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
